--- a/Raw/Unprocessed/Morphology_20191015.xlsx
+++ b/Raw/Unprocessed/Morphology_20191015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawootton/Documents/Masters/Ehrharta_morphology/Raw/Unprocessed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF2E00-4171-E645-AA89-51D3D9C4BAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB126F-D6F9-F24F-945B-9B6716794C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="27640" windowHeight="16540" xr2:uid="{2B95C35A-A4C3-EF41-A303-7487E2279022}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Collection</t>
   </si>
@@ -490,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D11FA15-9B9C-494C-88A8-670AE4912114}">
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y60" sqref="Y60"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y61" sqref="Y61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,6 +4956,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1657</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>320</v>
+      </c>
+      <c r="E61">
+        <v>280</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="G61" s="1">
+        <v>42.15</v>
+      </c>
+      <c r="H61" s="1">
+        <v>10.46</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="M61" s="1">
+        <v>25.05</v>
+      </c>
+      <c r="N61" s="3">
+        <v>5</v>
+      </c>
+      <c r="O61" s="2">
+        <v>21</v>
+      </c>
+      <c r="P61" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>24</v>
+      </c>
+      <c r="R61" s="2">
+        <v>18</v>
+      </c>
+      <c r="S61" s="2">
+        <v>59</v>
+      </c>
+      <c r="T61" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="U61" s="2">
+        <v>46</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>2</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw/Unprocessed/Morphology_20191015.xlsx
+++ b/Raw/Unprocessed/Morphology_20191015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawootton/Documents/Masters/Ehrharta_morphology/Raw/Unprocessed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB126F-D6F9-F24F-945B-9B6716794C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E74AE8-E3B0-FB4E-8B2E-552362963948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="27640" windowHeight="16540" xr2:uid="{2B95C35A-A4C3-EF41-A303-7487E2279022}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Collection</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>serrated leaves</t>
+  </si>
+  <si>
+    <t>E_setacea_disticha</t>
   </si>
 </sst>
 </file>
@@ -490,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D11FA15-9B9C-494C-88A8-670AE4912114}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y61" sqref="Y61"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y66" sqref="Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5030,6 +5033,376 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1661</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>420</v>
+      </c>
+      <c r="E62">
+        <v>310</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="H62" s="1">
+        <v>31.09</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>121.63</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="M62" s="1">
+        <v>23.77</v>
+      </c>
+      <c r="N62" s="3">
+        <v>5</v>
+      </c>
+      <c r="O62" s="2">
+        <v>8</v>
+      </c>
+      <c r="P62" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>17</v>
+      </c>
+      <c r="R62" s="2">
+        <v>13</v>
+      </c>
+      <c r="S62" s="2">
+        <v>49</v>
+      </c>
+      <c r="T62" s="2">
+        <v>12</v>
+      </c>
+      <c r="U62" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>2</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1589</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63">
+        <v>145</v>
+      </c>
+      <c r="E63">
+        <v>145</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20.21</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M63" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2</v>
+      </c>
+      <c r="P63" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>36</v>
+      </c>
+      <c r="R63" s="2">
+        <v>16</v>
+      </c>
+      <c r="S63" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="T63" s="2">
+        <v>19</v>
+      </c>
+      <c r="U63" s="2">
+        <v>43</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>2</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1597</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64">
+        <v>200</v>
+      </c>
+      <c r="E64">
+        <v>190</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="G64" s="1">
+        <v>18.66</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5.91</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>5.91</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="M64" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="N64" s="3">
+        <v>2</v>
+      </c>
+      <c r="O64" s="2">
+        <v>16</v>
+      </c>
+      <c r="P64" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>34</v>
+      </c>
+      <c r="R64" s="2">
+        <v>17</v>
+      </c>
+      <c r="S64" s="2">
+        <v>46</v>
+      </c>
+      <c r="T64" s="2">
+        <v>18</v>
+      </c>
+      <c r="U64" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>2</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1598</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65">
+        <v>55</v>
+      </c>
+      <c r="E65">
+        <v>45</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G65" s="1">
+        <v>9.76</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="M65" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="2">
+        <v>25</v>
+      </c>
+      <c r="P65" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>30</v>
+      </c>
+      <c r="R65" s="2">
+        <v>16</v>
+      </c>
+      <c r="S65" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" s="2">
+        <v>11</v>
+      </c>
+      <c r="U65" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>2</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1599</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66">
+        <v>120</v>
+      </c>
+      <c r="E66">
+        <v>120</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G66" s="1">
+        <v>34.47</v>
+      </c>
+      <c r="H66" s="1">
+        <v>11.84</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="M66" s="1">
+        <v>13.09</v>
+      </c>
+      <c r="N66" s="3">
+        <v>4</v>
+      </c>
+      <c r="O66" s="2">
+        <v>11</v>
+      </c>
+      <c r="P66" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="R66" s="2">
+        <v>14</v>
+      </c>
+      <c r="S66" s="2">
+        <v>51</v>
+      </c>
+      <c r="T66" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="U66" s="2">
+        <v>47</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>2</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
